--- a/Data/aearep-773/candidatepackages.xlsx
+++ b/Data/aearep-773/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -28,12 +28,12 @@
     <t>psmatch2</t>
   </si>
   <si>
+    <t>coefplot</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
@@ -43,51 +43,51 @@
     <t>missing</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>a2reg</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
+    <t>dummies2</t>
+  </si>
+  <si>
+    <t>spell</t>
   </si>
   <si>
     <t>xtile2</t>
   </si>
   <si>
-    <t>spell</t>
+    <t>dummies</t>
   </si>
   <si>
     <t>group2hdfe</t>
   </si>
   <si>
-    <t>dummies2</t>
-  </si>
-  <si>
-    <t>dummies</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
     <t>combine</t>
   </si>
   <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>nearest</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>pre</t>
+    <t>er</t>
   </si>
   <si>
     <t>roman</t>
   </si>
   <si>
-    <t>er</t>
-  </si>
-  <si>
     <t>regintfe</t>
   </si>
   <si>
@@ -109,9 +109,6 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-773/external</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-773/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
   </si>
   <si>
     <t>master_results.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -298,7 +292,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -322,7 +316,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -346,7 +340,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -358,7 +352,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -370,7 +364,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -382,7 +376,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -394,10 +388,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="C10">
-        <v>0.17009283602237701</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D10"/>
     </row>
@@ -406,10 +400,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C11">
-        <v>0.18733422458171844</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D11"/>
     </row>
@@ -418,10 +412,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="C12">
-        <v>0.18766577541828156</v>
+        <v>0.19140495359897614</v>
       </c>
       <c r="D12"/>
     </row>
@@ -430,10 +424,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>795</v>
+        <v>636</v>
       </c>
       <c r="C13">
-        <v>0.26359415054321289</v>
+        <v>0.21024793386459351</v>
       </c>
       <c r="D13"/>
     </row>
@@ -442,10 +436,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>826</v>
+        <v>751</v>
       </c>
       <c r="C14">
-        <v>0.27387267351150513</v>
+        <v>0.24826446175575256</v>
       </c>
       <c r="D14"/>
     </row>
@@ -454,10 +448,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>859</v>
+        <v>794</v>
       </c>
       <c r="C15">
-        <v>0.28481432795524597</v>
+        <v>0.26247933506965637</v>
       </c>
       <c r="D15"/>
     </row>
@@ -466,10 +460,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>952</v>
+        <v>875</v>
       </c>
       <c r="C16">
-        <v>0.31564986705780029</v>
+        <v>0.28925618529319763</v>
       </c>
       <c r="D16"/>
     </row>
@@ -478,10 +472,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1077</v>
+        <v>911</v>
       </c>
       <c r="C17">
-        <v>0.35709547996520996</v>
+        <v>0.30115702748298645</v>
       </c>
       <c r="D17"/>
     </row>
@@ -490,10 +484,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1194</v>
+        <v>1125</v>
       </c>
       <c r="C18">
-        <v>0.39588859677314758</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D18"/>
     </row>
@@ -502,10 +496,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1423</v>
+        <v>1306</v>
       </c>
       <c r="C19">
-        <v>0.47181698679924011</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D19"/>
     </row>
@@ -514,10 +508,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1444</v>
+        <v>1414</v>
       </c>
       <c r="C20">
-        <v>0.47877985239028931</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D20"/>
     </row>
@@ -526,10 +520,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1472</v>
+        <v>1428</v>
       </c>
       <c r="C21">
-        <v>0.48806366324424744</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D21"/>
     </row>
@@ -538,10 +532,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1553</v>
+        <v>1469</v>
       </c>
       <c r="C22">
-        <v>0.51492041349411011</v>
+        <v>0.48561984300613403</v>
       </c>
       <c r="D22"/>
     </row>
@@ -550,10 +544,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1745</v>
+        <v>1904</v>
       </c>
       <c r="C23">
-        <v>0.57858091592788696</v>
+        <v>0.62942147254943848</v>
       </c>
       <c r="D23"/>
     </row>
@@ -562,10 +556,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1753</v>
+        <v>1937</v>
       </c>
       <c r="C24">
-        <v>0.5812334418296814</v>
+        <v>0.64033055305480957</v>
       </c>
       <c r="D24"/>
     </row>
@@ -574,10 +568,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2705</v>
+        <v>2866</v>
       </c>
       <c r="C25">
-        <v>0.89688330888748169</v>
+        <v>0.94743800163269043</v>
       </c>
       <c r="D25"/>
     </row>
@@ -587,7 +581,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B40"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -595,7 +589,7 @@
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -603,7 +597,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -611,7 +605,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -619,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -627,7 +621,7 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -635,7 +629,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -643,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -651,7 +645,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +653,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -667,7 +661,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -675,7 +669,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -683,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -691,7 +685,7 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -699,7 +693,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -707,7 +701,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -715,7 +709,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -723,7 +717,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -731,7 +725,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -739,7 +733,7 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -747,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -755,7 +749,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -763,7 +757,7 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -771,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
@@ -779,7 +773,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
@@ -787,7 +781,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -795,7 +789,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -803,7 +797,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
@@ -811,7 +805,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -819,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -827,7 +821,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -835,7 +829,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
@@ -843,7 +837,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
@@ -851,7 +845,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
@@ -859,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
@@ -867,7 +861,7 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
@@ -875,7 +869,7 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
@@ -883,7 +877,7 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
@@ -891,7 +885,7 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39">
@@ -899,7 +893,7 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
@@ -907,15 +901,7 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
